--- a/data/georgia_census/samegrelo/senaki/age_dependency.xlsx
+++ b/data/georgia_census/samegrelo/senaki/age_dependency.xlsx
@@ -1007,13 +1007,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5560C564-A667-4E4D-80DB-FE77AEC8C2DD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28374496-B44D-4820-B1D6-BC002C3F62B5}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DDBB6F1-6115-4213-BE19-252AD66C6F00}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6061658A-E9E9-497B-BA5E-E0B54423AE54}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8198849-E56C-4A86-ADCB-C4F748B36AA5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFA98DB2-FBCC-44E1-A57A-7200200F221B}"/>
 </file>